--- a/target/classes/equiposjugadores.xlsx
+++ b/target/classes/equiposjugadores.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eduardopailemilla/USACH/TBD/databaseLoaderTBD/src/main/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F616F120-288A-174D-AEB1-A648252130D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,84 +25,84 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="338">
-  <si>
-    <t xml:space="preserve">Universidad Católica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Dituro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristopher Toselli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">German Lanaro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vicente Fernández</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valber Huerta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamín Kuscevic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yerco Oyanedel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Cornejo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Carlos Espinoza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamin Vidal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stefano Magnasco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">César Fuentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaime Carreño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Rojas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">César Pinares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Buonanotte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Pedro Fuenzalida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Lobos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luciano Aued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignacio Saavedra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastián Sáez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edson Puch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jeisson Vargas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Valencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unión La Calera</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="337">
+  <si>
+    <t>Universidad Católica</t>
+  </si>
+  <si>
+    <t>Matías Dituro</t>
+  </si>
+  <si>
+    <t>Cristopher Toselli</t>
+  </si>
+  <si>
+    <t>German Lanaro</t>
+  </si>
+  <si>
+    <t>Vicente Fernández</t>
+  </si>
+  <si>
+    <t>Valber Huerta</t>
+  </si>
+  <si>
+    <t>Benjamín Kuscevic</t>
+  </si>
+  <si>
+    <t>Yerco Oyanedel</t>
+  </si>
+  <si>
+    <t>Juan Cornejo</t>
+  </si>
+  <si>
+    <t>Juan Carlos Espinoza</t>
+  </si>
+  <si>
+    <t>Benjamin Vidal</t>
+  </si>
+  <si>
+    <t>Stefano Magnasco</t>
+  </si>
+  <si>
+    <t>César Fuentes</t>
+  </si>
+  <si>
+    <t>Jaime Carreño</t>
+  </si>
+  <si>
+    <t>Diego Rojas</t>
+  </si>
+  <si>
+    <t>César Pinares</t>
+  </si>
+  <si>
+    <t>Diego Buonanotte</t>
+  </si>
+  <si>
+    <t>José Pedro Fuenzalida</t>
+  </si>
+  <si>
+    <t>Carlos Lobos</t>
+  </si>
+  <si>
+    <t>Luciano Aued</t>
+  </si>
+  <si>
+    <t>Ignacio Saavedra</t>
+  </si>
+  <si>
+    <t>Sebastián Sáez</t>
+  </si>
+  <si>
+    <t>Edson Puch</t>
+  </si>
+  <si>
+    <t>Jeisson Vargas</t>
+  </si>
+  <si>
+    <t>Diego Valencia</t>
+  </si>
+  <si>
+    <t>Unión La Calera</t>
   </si>
   <si>
     <t xml:space="preserve">Lucas Giovini </t>
@@ -112,7 +117,7 @@
     <t xml:space="preserve">Pablo Alvarado </t>
   </si>
   <si>
-    <t xml:space="preserve">Matías Navarrete</t>
+    <t>Matías Navarrete</t>
   </si>
   <si>
     <t xml:space="preserve">Erik Figueroa </t>
@@ -124,945 +129,924 @@
     <t xml:space="preserve">Claudio Meneses </t>
   </si>
   <si>
-    <t xml:space="preserve">Sebastián Leyton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastián Zuñiga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Leiva</t>
+    <t>Sebastián Leyton</t>
+  </si>
+  <si>
+    <t>Sebastián Zuñiga</t>
+  </si>
+  <si>
+    <t>Juan Leiva</t>
   </si>
   <si>
     <t xml:space="preserve">Kevin Vásquez  </t>
   </si>
   <si>
-    <t xml:space="preserve">Douglas Estay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Rodríguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Álvarez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabián Manzano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ángelo Quiñones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcelo Larrondo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Josepablo Monreal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franco Lobos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colo-Colo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agustín Orión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brayan Cortés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Zaldivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julio Barroso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Manuel Insaurralde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamín Jerez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Óscar Opazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronald de la Fuente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felipe Campos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agustín Ortiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristián Gutiérrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Williams Alarcón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esteban Pavez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Valdivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Carmona</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Suazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaime Valdés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branco Provoste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Costa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Esteban Paredes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andrés Vilches</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcos Bolados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo Mouche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iván Morales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Javier Parraguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unión Española</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan José Echave</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Sánchez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristian Guerra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauro Maureira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Pavez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mario Larenas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thomas Galdames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felipe Seymour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Pablo Gómez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misael Dávila</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Pavez Contreras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo Aránguiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo González</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamín Galdames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauro Caballero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Luis Sierra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">David Llanos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gary Tello</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O'Higgins</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel Pinto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Yáñez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomás Alarcón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albert Acevedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulo Magalhaes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberto Cereceda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raúl Osorio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brian Torrealba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gastón Zúñiga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Contreras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Fuentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramón Fernández</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego González</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yerko González</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Sepúlveda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Luis Muñoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximiliano Salas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Meneses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Fierro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Audax Italiano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eryin Sanhueza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joaquín García</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Labrín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel Fernández</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osvaldo Bosso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabián Torres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolás Crovetto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolás Fernández</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Escobar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristóbal Muñoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Torres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">René Meléndez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iván Vásquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariel Martinez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Henríquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iván Ledezma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Fuenzalida</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Cabrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristóbal Marín</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coquimbo Unido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Cano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Retamal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolás Berardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Washington Torres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastián Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Vicencio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Oyarzún</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jaime Soto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulises Castagnoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando Cornejo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastián Galani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gerardo Navarrete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Aravena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristián Canío</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jean Paul Pineda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricio Pinilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ruben Farfán</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jonathan Benítez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curicó Unido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Deschamps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomás Vergara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Tapia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Santelices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felipe Saavedra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yerson Opazo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nelson Rebolledo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daniel Franco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Martínez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Espinosa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Héber García</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martín Cortés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonzalo Bustamante</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Rivera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Urzúa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauro Quiroga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Vallejos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastián Jaime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Vargas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Cavalleri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palestino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignacio González</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Borquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danie Murillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro González</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Byron Guajardo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis del Pino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enzo Guerrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignacio Ayala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Araya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Julián Fernández</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Rosende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristobal Jorquera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Jiménez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">César Cortés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Santiago Lizana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brayan Véjar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agustín Farías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Passerini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Richard Paredes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolás Zedan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yerko Rojas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roberto Gutiérrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Everton</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camilo Rozas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jorge Peña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Álex Ibacache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bastián San Juan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Domínguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristián Suárez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Joaquín López</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastián Pereira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Henríquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camilo Rodríguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonzalo Freitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando Arismendi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franco Ragusa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Orellana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benjamín Berríos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximiliano Ceratto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Álvaro Ramos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isaac Díaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio Vergara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huachipato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yerko Urra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brayan Manosalva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Castellón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ignacio Tapia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Rojas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudio Jopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Córdova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Bizama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federico Pereyra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ramón Sáez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claudio Sepúlveda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">César Valenzuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastián Martínez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolás Baeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathías López</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolás Silva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cris Martínez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kevin Baeza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felipe Barrientos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martín Sánchez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricio Godoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximiliano Rodríguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deportes Iquique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Naranjo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastián Pérez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Blásquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abel Hidalgo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauricio Zenteno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hans Salinas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manuel Bravo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andres Imperiale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Héctor Berrios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alan Moreno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diego Fernández</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Braulio Leal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Cepeda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Castro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wilson Piñones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misael Cubillos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camilo Gaínza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Donoso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Óscar Salinas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad de Concepción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristián Muñoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pablo Benítez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Álvaro Salazar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hans Martínez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando Cordero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guillermo Pacheco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Víctor Retamal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leandro Díaz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Camargo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Pedro Figueroa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hugo Droguett</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando Manríquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patricio Rubio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolás Maturana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Huentelaf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolás Orellana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luis Riveros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Walter Ponce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deportes Antofagasta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulo Garcés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando Hurtado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolás Araya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agustín Rossi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Branco Ampuero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bruno Romo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolás Peñailillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cristián Rojas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomás Asta-Buruaga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonzalo Fierro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Francisco Sepúlveda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alejandro Delfino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ricardo Blanco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Óscar Hernández</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Franz Schultz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabriel Sandoval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marco Collao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Michael Lepe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jason Flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felipe Flores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">José Bandez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cobresal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miguel Vargas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastián López</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Cabrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flavio Rojas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Contreras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodolfo González</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eric Godoy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcelo Filla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Ureña</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Gutiérrez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eduardo Farías</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ever Cantero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Felipe Reynero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fabián Saavedra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marcos Figueroa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ronaldo Abarca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicholas Muñoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carlos Muñoz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Universidad de Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fernando de Paul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jhonny Herrera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sergio Vittor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Rodríguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Augusto Barrios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lucas Alarcón</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rodrigo Echeverría</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Campos Toro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jimmy Martínez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolás Oroz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jean Beausejour</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rafael Caroca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gonzalo Espinoza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iván Rozas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leandro Benegas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ángelo Henríquez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sebastián Ubilla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matías Campos López</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicolás Guerra</t>
+    <t>Douglas Estay</t>
+  </si>
+  <si>
+    <t>Thomas Rodríguez</t>
+  </si>
+  <si>
+    <t>Matías Álvarez</t>
+  </si>
+  <si>
+    <t>Fabián Manzano</t>
+  </si>
+  <si>
+    <t>Ángelo Quiñones</t>
+  </si>
+  <si>
+    <t>Marcelo Larrondo</t>
+  </si>
+  <si>
+    <t>Josepablo Monreal</t>
+  </si>
+  <si>
+    <t>Franco Lobos</t>
+  </si>
+  <si>
+    <t>Colo-Colo</t>
+  </si>
+  <si>
+    <t>Agustín Orión</t>
+  </si>
+  <si>
+    <t>Brayan Cortés</t>
+  </si>
+  <si>
+    <t>Matías Zaldivia</t>
+  </si>
+  <si>
+    <t>Julio Barroso</t>
+  </si>
+  <si>
+    <t>Juan Manuel Insaurralde</t>
+  </si>
+  <si>
+    <t>Benjamín Jerez</t>
+  </si>
+  <si>
+    <t>Óscar Opazo</t>
+  </si>
+  <si>
+    <t>Ronald de la Fuente</t>
+  </si>
+  <si>
+    <t>Felipe Campos</t>
+  </si>
+  <si>
+    <t>Agustín Ortiz</t>
+  </si>
+  <si>
+    <t>Cristián Gutiérrez</t>
+  </si>
+  <si>
+    <t>Williams Alarcón</t>
+  </si>
+  <si>
+    <t>Esteban Pavez</t>
+  </si>
+  <si>
+    <t>Jorge Valdivia</t>
+  </si>
+  <si>
+    <t>Carlos Carmona</t>
+  </si>
+  <si>
+    <t>Gabriel Suazo</t>
+  </si>
+  <si>
+    <t>Jaime Valdés</t>
+  </si>
+  <si>
+    <t>Branco Provoste</t>
+  </si>
+  <si>
+    <t>Gabriel Costa</t>
+  </si>
+  <si>
+    <t>Esteban Paredes</t>
+  </si>
+  <si>
+    <t>Andrés Vilches</t>
+  </si>
+  <si>
+    <t>Marcos Bolados</t>
+  </si>
+  <si>
+    <t>Pablo Mouche</t>
+  </si>
+  <si>
+    <t>Iván Morales</t>
+  </si>
+  <si>
+    <t>Javier Parraguez</t>
+  </si>
+  <si>
+    <t>Unión Española</t>
+  </si>
+  <si>
+    <t>Juan José Echave</t>
+  </si>
+  <si>
+    <t>Diego Sánchez</t>
+  </si>
+  <si>
+    <t>Cristian Guerra</t>
+  </si>
+  <si>
+    <t>Mauro Maureira</t>
+  </si>
+  <si>
+    <t>Luis Pavez</t>
+  </si>
+  <si>
+    <t>Mario Larenas</t>
+  </si>
+  <si>
+    <t>Thomas Galdames</t>
+  </si>
+  <si>
+    <t>Felipe Seymour</t>
+  </si>
+  <si>
+    <t>Juan Pablo Gómez</t>
+  </si>
+  <si>
+    <t>Misael Dávila</t>
+  </si>
+  <si>
+    <t>Luis Pavez Contreras</t>
+  </si>
+  <si>
+    <t>Pablo Aránguiz</t>
+  </si>
+  <si>
+    <t>Rodrigo González</t>
+  </si>
+  <si>
+    <t>Benjamín Galdames</t>
+  </si>
+  <si>
+    <t>Mauro Caballero</t>
+  </si>
+  <si>
+    <t>José Luis Sierra</t>
+  </si>
+  <si>
+    <t>David Llanos</t>
+  </si>
+  <si>
+    <t>Gary Tello</t>
+  </si>
+  <si>
+    <t>O'Higgins</t>
+  </si>
+  <si>
+    <t>Miguel Pinto</t>
+  </si>
+  <si>
+    <t>Rodrigo Yáñez</t>
+  </si>
+  <si>
+    <t>Tomás Alarcón</t>
+  </si>
+  <si>
+    <t>Albert Acevedo</t>
+  </si>
+  <si>
+    <t>Paulo Magalhaes</t>
+  </si>
+  <si>
+    <t>Roberto Cereceda</t>
+  </si>
+  <si>
+    <t>Raúl Osorio</t>
+  </si>
+  <si>
+    <t>Brian Torrealba</t>
+  </si>
+  <si>
+    <t>Gastón Zúñiga</t>
+  </si>
+  <si>
+    <t>Alejandro Contreras</t>
+  </si>
+  <si>
+    <t>Juan Fuentes</t>
+  </si>
+  <si>
+    <t>Ramón Fernández</t>
+  </si>
+  <si>
+    <t>Diego González</t>
+  </si>
+  <si>
+    <t>Yerko González</t>
+  </si>
+  <si>
+    <t>Matías Sepúlveda</t>
+  </si>
+  <si>
+    <t>José Luis Muñoz</t>
+  </si>
+  <si>
+    <t>Maximiliano Salas</t>
+  </si>
+  <si>
+    <t>Matías Meneses</t>
+  </si>
+  <si>
+    <t>Lucas Fierro</t>
+  </si>
+  <si>
+    <t>Audax Italiano</t>
+  </si>
+  <si>
+    <t>Eryin Sanhueza</t>
+  </si>
+  <si>
+    <t>Carlos Labrín</t>
+  </si>
+  <si>
+    <t>Manuel Fernández</t>
+  </si>
+  <si>
+    <t>Osvaldo Bosso</t>
+  </si>
+  <si>
+    <t>Fabián Torres</t>
+  </si>
+  <si>
+    <t>Nicolás Crovetto</t>
+  </si>
+  <si>
+    <t>Nicolás Fernández</t>
+  </si>
+  <si>
+    <t>Ricardo Escobar</t>
+  </si>
+  <si>
+    <t>Cristóbal Muñoz</t>
+  </si>
+  <si>
+    <t>Diego Torres</t>
+  </si>
+  <si>
+    <t>René Meléndez</t>
+  </si>
+  <si>
+    <t>Iván Vásquez</t>
+  </si>
+  <si>
+    <t>Ariel Martinez</t>
+  </si>
+  <si>
+    <t>Jorge Henríquez</t>
+  </si>
+  <si>
+    <t>Iván Ledezma</t>
+  </si>
+  <si>
+    <t>Ricardo Fuenzalida</t>
+  </si>
+  <si>
+    <t>Luis Cabrera</t>
+  </si>
+  <si>
+    <t>Cristóbal Marín</t>
+  </si>
+  <si>
+    <t>Coquimbo Unido</t>
+  </si>
+  <si>
+    <t>Matías Cano</t>
+  </si>
+  <si>
+    <t>Daniel Retamal</t>
+  </si>
+  <si>
+    <t>Nicolás Berardo</t>
+  </si>
+  <si>
+    <t>Washington Torres</t>
+  </si>
+  <si>
+    <t>Sebastián Silva</t>
+  </si>
+  <si>
+    <t>Daniel Vicencio</t>
+  </si>
+  <si>
+    <t>Diego Oyarzún</t>
+  </si>
+  <si>
+    <t>Jaime Soto</t>
+  </si>
+  <si>
+    <t>Ulises Castagnoli</t>
+  </si>
+  <si>
+    <t>Fernando Cornejo</t>
+  </si>
+  <si>
+    <t>Sebastián Galani</t>
+  </si>
+  <si>
+    <t>Gerardo Navarrete</t>
+  </si>
+  <si>
+    <t>Diego Aravena</t>
+  </si>
+  <si>
+    <t>Cristián Canío</t>
+  </si>
+  <si>
+    <t>Jean Paul Pineda</t>
+  </si>
+  <si>
+    <t>Mauricio Pinilla</t>
+  </si>
+  <si>
+    <t>Ruben Farfán</t>
+  </si>
+  <si>
+    <t>Jonathan Benítez</t>
+  </si>
+  <si>
+    <t>Curicó Unido</t>
+  </si>
+  <si>
+    <t>Jorge Deschamps</t>
+  </si>
+  <si>
+    <t>Tomás Vergara</t>
+  </si>
+  <si>
+    <t>Diego Tapia</t>
+  </si>
+  <si>
+    <t>Luis Santelices</t>
+  </si>
+  <si>
+    <t>Felipe Saavedra</t>
+  </si>
+  <si>
+    <t>Yerson Opazo</t>
+  </si>
+  <si>
+    <t>Nelson Rebolledo</t>
+  </si>
+  <si>
+    <t>Daniel Franco</t>
+  </si>
+  <si>
+    <t>Francisco Silva</t>
+  </si>
+  <si>
+    <t>Kevin Martínez</t>
+  </si>
+  <si>
+    <t>Carlos Espinosa</t>
+  </si>
+  <si>
+    <t>Héber García</t>
+  </si>
+  <si>
+    <t>Martín Cortés</t>
+  </si>
+  <si>
+    <t>Gonzalo Bustamante</t>
+  </si>
+  <si>
+    <t>Francisco Rivera</t>
+  </si>
+  <si>
+    <t>Diego Urzúa</t>
+  </si>
+  <si>
+    <t>Mauro Quiroga</t>
+  </si>
+  <si>
+    <t>Diego Vallejos</t>
+  </si>
+  <si>
+    <t>Sebastián Jaime</t>
+  </si>
+  <si>
+    <t>Gabriel Vargas</t>
+  </si>
+  <si>
+    <t>Matías Cavalleri</t>
+  </si>
+  <si>
+    <t>Palestino</t>
+  </si>
+  <si>
+    <t>Ignacio González</t>
+  </si>
+  <si>
+    <t>Matías Borquez</t>
+  </si>
+  <si>
+    <t>Danie Murillo</t>
+  </si>
+  <si>
+    <t>Alejandro González</t>
+  </si>
+  <si>
+    <t>Byron Guajardo</t>
+  </si>
+  <si>
+    <t>Luis del Pino</t>
+  </si>
+  <si>
+    <t>Enzo Guerrero</t>
+  </si>
+  <si>
+    <t>Ignacio Ayala</t>
+  </si>
+  <si>
+    <t>Jorge Araya</t>
+  </si>
+  <si>
+    <t>Julián Fernández</t>
+  </si>
+  <si>
+    <t>Diego Rosende</t>
+  </si>
+  <si>
+    <t>Cristobal Jorquera</t>
+  </si>
+  <si>
+    <t>Luis Jiménez</t>
+  </si>
+  <si>
+    <t>César Cortés</t>
+  </si>
+  <si>
+    <t>Santiago Lizana</t>
+  </si>
+  <si>
+    <t>Brayan Véjar</t>
+  </si>
+  <si>
+    <t>Agustín Farías</t>
+  </si>
+  <si>
+    <t>Lucas Passerini</t>
+  </si>
+  <si>
+    <t>Richard Paredes</t>
+  </si>
+  <si>
+    <t>Nicolás Zedan</t>
+  </si>
+  <si>
+    <t>Yerko Rojas</t>
+  </si>
+  <si>
+    <t>Roberto Gutiérrez</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Camilo Rozas</t>
+  </si>
+  <si>
+    <t>Jorge Peña</t>
+  </si>
+  <si>
+    <t>Álex Ibacache</t>
+  </si>
+  <si>
+    <t>Bastián San Juan</t>
+  </si>
+  <si>
+    <t>Lucas Domínguez</t>
+  </si>
+  <si>
+    <t>Cristián Suárez</t>
+  </si>
+  <si>
+    <t>Joaquín López</t>
+  </si>
+  <si>
+    <t>Sebastián Pereira</t>
+  </si>
+  <si>
+    <t>Alejandro Henríquez</t>
+  </si>
+  <si>
+    <t>Camilo Rodríguez</t>
+  </si>
+  <si>
+    <t>Gonzalo Freitas</t>
+  </si>
+  <si>
+    <t>Fernando Arismendi</t>
+  </si>
+  <si>
+    <t>Franco Ragusa</t>
+  </si>
+  <si>
+    <t>Diego Orellana</t>
+  </si>
+  <si>
+    <t>Benjamín Berríos</t>
+  </si>
+  <si>
+    <t>Maximiliano Ceratto</t>
+  </si>
+  <si>
+    <t>Álvaro Ramos</t>
+  </si>
+  <si>
+    <t>Isaac Díaz</t>
+  </si>
+  <si>
+    <t>Sergio Vergara</t>
+  </si>
+  <si>
+    <t>Huachipato</t>
+  </si>
+  <si>
+    <t>Yerko Urra</t>
+  </si>
+  <si>
+    <t>Brayan Manosalva</t>
+  </si>
+  <si>
+    <t>Gabriel Castellón</t>
+  </si>
+  <si>
+    <t>Ignacio Tapia</t>
+  </si>
+  <si>
+    <t>José Rojas</t>
+  </si>
+  <si>
+    <t>Claudio Jopia</t>
+  </si>
+  <si>
+    <t>Juan Córdova</t>
+  </si>
+  <si>
+    <t>José Bizama</t>
+  </si>
+  <si>
+    <t>Federico Pereyra</t>
+  </si>
+  <si>
+    <t>Ramón Sáez</t>
+  </si>
+  <si>
+    <t>Claudio Sepúlveda</t>
+  </si>
+  <si>
+    <t>César Valenzuela</t>
+  </si>
+  <si>
+    <t>Sebastián Martínez</t>
+  </si>
+  <si>
+    <t>Nicolás Baeza</t>
+  </si>
+  <si>
+    <t>Mathías López</t>
+  </si>
+  <si>
+    <t>Nicolás Silva</t>
+  </si>
+  <si>
+    <t>Cris Martínez</t>
+  </si>
+  <si>
+    <t>Kevin Baeza</t>
+  </si>
+  <si>
+    <t>Felipe Barrientos</t>
+  </si>
+  <si>
+    <t>Martín Sánchez</t>
+  </si>
+  <si>
+    <t>Mauricio Godoy</t>
+  </si>
+  <si>
+    <t>Maximiliano Rodríguez</t>
+  </si>
+  <si>
+    <t>Deportes Iquique</t>
+  </si>
+  <si>
+    <t>Rodrigo Naranjo</t>
+  </si>
+  <si>
+    <t>Sebastián Pérez</t>
+  </si>
+  <si>
+    <t>Matías Blásquez</t>
+  </si>
+  <si>
+    <t>Abel Hidalgo</t>
+  </si>
+  <si>
+    <t>Mauricio Zenteno</t>
+  </si>
+  <si>
+    <t>Hans Salinas</t>
+  </si>
+  <si>
+    <t>Manuel Bravo</t>
+  </si>
+  <si>
+    <t>Andres Imperiale</t>
+  </si>
+  <si>
+    <t>Héctor Berrios</t>
+  </si>
+  <si>
+    <t>Alan Moreno</t>
+  </si>
+  <si>
+    <t>Diego Fernández</t>
+  </si>
+  <si>
+    <t>Braulio Leal</t>
+  </si>
+  <si>
+    <t>José Cepeda</t>
+  </si>
+  <si>
+    <t>Rodrigo Castro</t>
+  </si>
+  <si>
+    <t>Wilson Piñones</t>
+  </si>
+  <si>
+    <t>Misael Cubillos</t>
+  </si>
+  <si>
+    <t>Camilo Gaínza</t>
+  </si>
+  <si>
+    <t>Matías Donoso</t>
+  </si>
+  <si>
+    <t>Óscar Salinas</t>
+  </si>
+  <si>
+    <t>Universidad de Concepción</t>
+  </si>
+  <si>
+    <t>Cristián Muñoz</t>
+  </si>
+  <si>
+    <t>Pablo Benítez</t>
+  </si>
+  <si>
+    <t>Álvaro Salazar</t>
+  </si>
+  <si>
+    <t>Hans Martínez</t>
+  </si>
+  <si>
+    <t>Fernando Cordero</t>
+  </si>
+  <si>
+    <t>Guillermo Pacheco</t>
+  </si>
+  <si>
+    <t>Víctor Retamal</t>
+  </si>
+  <si>
+    <t>Leandro Díaz</t>
+  </si>
+  <si>
+    <t>Alejandro Camargo</t>
+  </si>
+  <si>
+    <t>Luis Pedro Figueroa</t>
+  </si>
+  <si>
+    <t>Hugo Droguett</t>
+  </si>
+  <si>
+    <t>Fernando Manríquez</t>
+  </si>
+  <si>
+    <t>Patricio Rubio</t>
+  </si>
+  <si>
+    <t>Nicolás Maturana</t>
+  </si>
+  <si>
+    <t>José Huentelaf</t>
+  </si>
+  <si>
+    <t>Nicolás Orellana</t>
+  </si>
+  <si>
+    <t>Luis Riveros</t>
+  </si>
+  <si>
+    <t>Walter Ponce</t>
+  </si>
+  <si>
+    <t>Deportes Antofagasta</t>
+  </si>
+  <si>
+    <t>Paulo Garcés</t>
+  </si>
+  <si>
+    <t>Fernando Hurtado</t>
+  </si>
+  <si>
+    <t>Nicolás Araya</t>
+  </si>
+  <si>
+    <t>Agustín Rossi</t>
+  </si>
+  <si>
+    <t>Branco Ampuero</t>
+  </si>
+  <si>
+    <t>Bruno Romo</t>
+  </si>
+  <si>
+    <t>Nicolás Peñailillo</t>
+  </si>
+  <si>
+    <t>Cristián Rojas</t>
+  </si>
+  <si>
+    <t>Tomás Asta-Buruaga</t>
+  </si>
+  <si>
+    <t>Gonzalo Fierro</t>
+  </si>
+  <si>
+    <t>Francisco Sepúlveda</t>
+  </si>
+  <si>
+    <t>Alejandro Delfino</t>
+  </si>
+  <si>
+    <t>Ricardo Blanco</t>
+  </si>
+  <si>
+    <t>Óscar Hernández</t>
+  </si>
+  <si>
+    <t>Franz Schultz</t>
+  </si>
+  <si>
+    <t>Gabriel Sandoval</t>
+  </si>
+  <si>
+    <t>Marco Collao</t>
+  </si>
+  <si>
+    <t>Michael Lepe</t>
+  </si>
+  <si>
+    <t>Jason Flores</t>
+  </si>
+  <si>
+    <t>Felipe Flores</t>
+  </si>
+  <si>
+    <t>José Bandez</t>
+  </si>
+  <si>
+    <t>Cobresal</t>
+  </si>
+  <si>
+    <t>Miguel Vargas</t>
+  </si>
+  <si>
+    <t>Sebastián López</t>
+  </si>
+  <si>
+    <t>Rodrigo Cabrera</t>
+  </si>
+  <si>
+    <t>Flavio Rojas</t>
+  </si>
+  <si>
+    <t>Juan Contreras</t>
+  </si>
+  <si>
+    <t>Rodolfo González</t>
+  </si>
+  <si>
+    <t>Eric Godoy</t>
+  </si>
+  <si>
+    <t>Marcelo Filla</t>
+  </si>
+  <si>
+    <t>Rodrigo Ureña</t>
+  </si>
+  <si>
+    <t>Juan Gutiérrez</t>
+  </si>
+  <si>
+    <t>Eduardo Farías</t>
+  </si>
+  <si>
+    <t>Ever Cantero</t>
+  </si>
+  <si>
+    <t>Felipe Reynero</t>
+  </si>
+  <si>
+    <t>Fabián Saavedra</t>
+  </si>
+  <si>
+    <t>Marcos Figueroa</t>
+  </si>
+  <si>
+    <t>Ronaldo Abarca</t>
+  </si>
+  <si>
+    <t>Nicholas Muñoz</t>
+  </si>
+  <si>
+    <t>Carlos Muñoz</t>
+  </si>
+  <si>
+    <t>Universidad de Chile</t>
+  </si>
+  <si>
+    <t>Fernando de Paul</t>
+  </si>
+  <si>
+    <t>Jhonny Herrera</t>
+  </si>
+  <si>
+    <t>Sergio Vittor</t>
+  </si>
+  <si>
+    <t>Matías Rodríguez</t>
+  </si>
+  <si>
+    <t>Augusto Barrios</t>
+  </si>
+  <si>
+    <t>Lucas Alarcón</t>
+  </si>
+  <si>
+    <t>Rodrigo Echeverría</t>
+  </si>
+  <si>
+    <t>Matías Campos Toro</t>
+  </si>
+  <si>
+    <t>Jimmy Martínez</t>
+  </si>
+  <si>
+    <t>Nicolás Oroz</t>
+  </si>
+  <si>
+    <t>Jean Beausejour</t>
+  </si>
+  <si>
+    <t>Rafael Caroca</t>
+  </si>
+  <si>
+    <t>Gonzalo Espinoza</t>
+  </si>
+  <si>
+    <t>Iván Rozas</t>
+  </si>
+  <si>
+    <t>Leandro Benegas</t>
+  </si>
+  <si>
+    <t>Ángelo Henríquez</t>
+  </si>
+  <si>
+    <t>Sebastián Ubilla</t>
+  </si>
+  <si>
+    <t>Matías Campos López</t>
+  </si>
+  <si>
+    <t>Nicolás Guerra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1080,7 +1064,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1088,75 +1072,343 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B325"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B324"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A325" activeCellId="0" sqref="A325"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A108" sqref="A108:XFD108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.18"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="3" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1172,7 +1424,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1188,7 +1440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1196,7 +1448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1204,7 +1456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,7 +1464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -1228,7 +1480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,7 +1488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,7 +1512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -1276,7 +1528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1536,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1292,7 +1544,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -1300,7 +1552,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1568,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -1324,7 +1576,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1592,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -1356,7 +1608,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -1364,7 +1616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
@@ -1372,7 +1624,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -1380,7 +1632,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>25</v>
       </c>
@@ -1388,7 +1640,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1396,7 +1648,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1404,7 +1656,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,7 +1664,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>25</v>
       </c>
@@ -1420,7 +1672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>25</v>
       </c>
@@ -1428,7 +1680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
@@ -1436,7 +1688,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>25</v>
       </c>
@@ -1444,7 +1696,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
@@ -1452,7 +1704,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,7 +1712,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
@@ -1468,7 +1720,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>25</v>
       </c>
@@ -1476,7 +1728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
@@ -1484,7 +1736,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>25</v>
       </c>
@@ -1492,7 +1744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>25</v>
       </c>
@@ -1500,7 +1752,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>25</v>
       </c>
@@ -1508,7 +1760,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>46</v>
       </c>
@@ -1516,7 +1768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
@@ -1524,7 +1776,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -1532,7 +1784,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
@@ -1540,7 +1792,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
@@ -1548,7 +1800,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -1556,7 +1808,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>46</v>
       </c>
@@ -1564,7 +1816,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>46</v>
       </c>
@@ -1572,7 +1824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1580,7 +1832,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
@@ -1588,7 +1840,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
@@ -1596,7 +1848,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>46</v>
       </c>
@@ -1604,7 +1856,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>46</v>
       </c>
@@ -1612,7 +1864,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>46</v>
       </c>
@@ -1620,7 +1872,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>46</v>
       </c>
@@ -1628,7 +1880,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>46</v>
       </c>
@@ -1636,7 +1888,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>46</v>
       </c>
@@ -1644,7 +1896,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>46</v>
       </c>
@@ -1652,7 +1904,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>46</v>
       </c>
@@ -1660,7 +1912,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>46</v>
       </c>
@@ -1668,7 +1920,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>46</v>
       </c>
@@ -1676,7 +1928,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>46</v>
       </c>
@@ -1684,7 +1936,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
@@ -1692,7 +1944,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
@@ -1700,7 +1952,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
@@ -1708,7 +1960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>72</v>
       </c>
@@ -1716,7 +1968,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>72</v>
       </c>
@@ -1724,7 +1976,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
@@ -1732,7 +1984,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -1740,7 +1992,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -1748,7 +2000,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
@@ -1756,7 +2008,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>72</v>
       </c>
@@ -1764,7 +2016,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>72</v>
       </c>
@@ -1772,7 +2024,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>72</v>
       </c>
@@ -1780,7 +2032,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>72</v>
       </c>
@@ -1788,7 +2040,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>72</v>
       </c>
@@ -1796,7 +2048,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>72</v>
       </c>
@@ -1804,7 +2056,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>72</v>
       </c>
@@ -1812,7 +2064,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>72</v>
       </c>
@@ -1820,7 +2072,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>72</v>
       </c>
@@ -1828,7 +2080,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>72</v>
       </c>
@@ -1836,7 +2088,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>72</v>
       </c>
@@ -1844,7 +2096,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>72</v>
       </c>
@@ -1852,7 +2104,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>91</v>
       </c>
@@ -1860,7 +2112,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>91</v>
       </c>
@@ -1868,7 +2120,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>91</v>
       </c>
@@ -1876,7 +2128,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
@@ -1884,7 +2136,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -1892,7 +2144,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>91</v>
       </c>
@@ -1900,7 +2152,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>91</v>
       </c>
@@ -1908,7 +2160,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>91</v>
       </c>
@@ -1916,7 +2168,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>91</v>
       </c>
@@ -1924,7 +2176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>91</v>
       </c>
@@ -1932,7 +2184,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>91</v>
       </c>
@@ -1940,7 +2192,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>91</v>
       </c>
@@ -1948,7 +2200,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>91</v>
       </c>
@@ -1956,7 +2208,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>91</v>
       </c>
@@ -1964,7 +2216,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>91</v>
       </c>
@@ -1972,7 +2224,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>91</v>
       </c>
@@ -1980,7 +2232,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>91</v>
       </c>
@@ -1988,7 +2240,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>91</v>
       </c>
@@ -1996,7 +2248,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>91</v>
       </c>
@@ -2004,7 +2256,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>111</v>
       </c>
@@ -2012,7 +2264,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>111</v>
       </c>
@@ -2020,7 +2272,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>111</v>
       </c>
@@ -2028,7 +2280,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>111</v>
       </c>
@@ -2036,7 +2288,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
@@ -2044,7 +2296,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
@@ -2052,7 +2304,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>111</v>
       </c>
@@ -2060,7 +2312,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>111</v>
       </c>
@@ -2068,7 +2320,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>111</v>
       </c>
@@ -2076,7 +2328,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>111</v>
       </c>
@@ -2084,7 +2336,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>111</v>
       </c>
@@ -2092,7 +2344,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>111</v>
       </c>
@@ -2100,7 +2352,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>111</v>
       </c>
@@ -2108,7 +2360,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>111</v>
       </c>
@@ -2116,7 +2368,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>111</v>
       </c>
@@ -2124,7 +2376,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>111</v>
       </c>
@@ -2132,7 +2384,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>111</v>
       </c>
@@ -2140,7 +2392,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>111</v>
       </c>
@@ -2148,1619 +2400,1610 @@
         <v>129</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B125" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A126" s="1" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="B143" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A144" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="B164" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A165" s="1" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B168" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A169" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A183" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="B188" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A189" s="1" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A208" s="1" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A230" s="1" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A246" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B246" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A250" s="1" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="s">
-        <v>258</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A268" s="1" t="s">
         <v>276</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A289" s="1" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="14" x14ac:dyDescent="0.15">
+      <c r="A307" s="1" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:2" ht="14" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B325" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
